--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_06-03.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_06-03.xlsx
@@ -2500,7 +2500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  "Nice win"? Win my ass.... If you weren't dying, we'd all be charming ice sculptures by now.
+    <t xml:space="preserve">[name="Blaze"]  'Nice win'? Win my ass.... If you weren't dying, we'd all be charming ice sculptures by now.
 </t>
   </si>
   <si>
@@ -2596,7 +2596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  I'm Infected, but I've never given anyone the "oh woe is me," "Infected people are so oppressed" crap. Nobody wants to hear it.
+    <t xml:space="preserve">[name="Blaze"]  I'm Infected, but I've never given anyone the 'oh woe is me,' 'Infected people are so oppressed' crap. Nobody wants to hear it.
 </t>
   </si>
   <si>
@@ -2608,7 +2608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  "Infected people are people too," it's as simple as that. And I don't want people looking at me like a pitiful little animal, I'm out for an even look, on the level.
+    <t xml:space="preserve">[name="Blaze"]  'Infected people are people too,' it's as simple as that. And I don't want people looking at me like a pitiful little animal, I'm out for an even look, on the level.
 </t>
   </si>
   <si>
@@ -2932,7 +2932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  No. Rhodes Island has never had an "Infected" side.
+    <t xml:space="preserve">[name="Amiya"]  No. Rhodes Island has never had an 'Infected' side.
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  No need, Mr. Wei. We in Rhodes Island are more interested in the way our partners do business than their "bounty".
+    <t xml:space="preserve">[name="Amiya"]  No need, Mr. Wei. We in Rhodes Island are more interested in the way our partners do business than their 'bounty'.
 </t>
   </si>
   <si>
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But, no matter how "normal" it is, it should not be treated as a "normal" thing.
+    <t xml:space="preserve">[name="Amiya"]  But, no matter how 'normal' it is, it should not be treated as a 'normal' thing.
 </t>
   </si>
   <si>
@@ -3052,7 +3052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They will simply be reappropriated to imprison and torment another group of people... Just no longer the so-called "Infected".
+    <t xml:space="preserve">[name="Amiya"]  They will simply be reappropriated to imprison and torment another group of people... Just no longer the so-called 'Infected'.
 </t>
   </si>
   <si>
@@ -3392,7 +3392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  "This city belongs to Ursus."
+    <t xml:space="preserve">[name="Kal'tsit"]  'This city belongs to Ursus.'
 </t>
   </si>
   <si>
